--- a/CumulativeTestsByTypeByCounty/2021-03-08.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-03-08.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>48125</v>
+        <v>48278</v>
       </c>
       <c r="C2" s="4">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D2" s="4">
-        <v>6100</v>
+        <v>6121</v>
       </c>
       <c r="E2" s="4">
-        <v>55650</v>
+        <v>55825</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3974</v>
+        <v>3977</v>
       </c>
       <c r="C3" s="4">
         <v>203</v>
       </c>
       <c r="D3" s="4">
-        <v>2066</v>
+        <v>2074</v>
       </c>
       <c r="E3" s="4">
-        <v>6243</v>
+        <v>6254</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>51772</v>
+        <v>51855</v>
       </c>
       <c r="C4" s="4">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="D4" s="4">
-        <v>18454</v>
+        <v>18916</v>
       </c>
       <c r="E4" s="4">
-        <v>71730</v>
+        <v>72278</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>6783</v>
+        <v>6814</v>
       </c>
       <c r="C5" s="4">
-        <v>2075</v>
+        <v>2082</v>
       </c>
       <c r="D5" s="4">
-        <v>4733</v>
+        <v>4759</v>
       </c>
       <c r="E5" s="4">
-        <v>13591</v>
+        <v>13655</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="C6" s="4">
         <v>463</v>
@@ -1148,7 +1148,7 @@
         <v>432</v>
       </c>
       <c r="E6" s="4">
-        <v>3671</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1162,10 +1162,10 @@
         <v>225</v>
       </c>
       <c r="D7" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="4">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>47508</v>
+        <v>47563</v>
       </c>
       <c r="C8" s="4">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="D8" s="4">
-        <v>3805</v>
+        <v>3827</v>
       </c>
       <c r="E8" s="4">
-        <v>52330</v>
+        <v>52412</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>16136</v>
+        <v>16187</v>
       </c>
       <c r="C9" s="4">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D9" s="4">
-        <v>966</v>
+        <v>1008</v>
       </c>
       <c r="E9" s="4">
-        <v>17543</v>
+        <v>17637</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="C10" s="4">
         <v>41</v>
@@ -1216,7 +1216,7 @@
         <v>434</v>
       </c>
       <c r="E10" s="4">
-        <v>2190</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>7136</v>
+        <v>7163</v>
       </c>
       <c r="C11" s="4">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D11" s="4">
-        <v>3002</v>
+        <v>3029</v>
       </c>
       <c r="E11" s="4">
-        <v>10563</v>
+        <v>10625</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>45858</v>
+        <v>46016</v>
       </c>
       <c r="C12" s="4">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="D12" s="4">
-        <v>14184</v>
+        <v>14277</v>
       </c>
       <c r="E12" s="4">
-        <v>61109</v>
+        <v>61364</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C13" s="4">
         <v>151</v>
       </c>
       <c r="D13" s="4">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E13" s="4">
-        <v>2139</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>29272</v>
+        <v>29298</v>
       </c>
       <c r="C14" s="4">
-        <v>5038</v>
+        <v>5050</v>
       </c>
       <c r="D14" s="4">
-        <v>6026</v>
+        <v>6060</v>
       </c>
       <c r="E14" s="4">
-        <v>40336</v>
+        <v>40408</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>219517</v>
+        <v>219954</v>
       </c>
       <c r="C15" s="4">
-        <v>13044</v>
+        <v>13058</v>
       </c>
       <c r="D15" s="4">
-        <v>11858</v>
+        <v>12066</v>
       </c>
       <c r="E15" s="4">
-        <v>244419</v>
+        <v>245078</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1655582</v>
+        <v>1663889</v>
       </c>
       <c r="C16" s="4">
-        <v>44665</v>
+        <v>44982</v>
       </c>
       <c r="D16" s="4">
-        <v>162736</v>
+        <v>163943</v>
       </c>
       <c r="E16" s="4">
-        <v>1862983</v>
+        <v>1872814</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5190</v>
+        <v>5201</v>
       </c>
       <c r="C17" s="4">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D17" s="4">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E17" s="4">
-        <v>5995</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1343,7 +1343,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C18" s="4">
         <v>9</v>
@@ -1352,7 +1352,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>8212</v>
+        <v>8233</v>
       </c>
       <c r="C19" s="4">
         <v>462</v>
       </c>
       <c r="D19" s="4">
-        <v>4140</v>
+        <v>4143</v>
       </c>
       <c r="E19" s="4">
-        <v>12814</v>
+        <v>12838</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>55112</v>
+        <v>55207</v>
       </c>
       <c r="C20" s="4">
-        <v>9736</v>
+        <v>9739</v>
       </c>
       <c r="D20" s="4">
-        <v>9515</v>
+        <v>9576</v>
       </c>
       <c r="E20" s="4">
-        <v>74363</v>
+        <v>74522</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>285047</v>
+        <v>285869</v>
       </c>
       <c r="C21" s="4">
-        <v>8897</v>
+        <v>8925</v>
       </c>
       <c r="D21" s="4">
-        <v>28397</v>
+        <v>28644</v>
       </c>
       <c r="E21" s="4">
-        <v>322341</v>
+        <v>323438</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>218024</v>
+        <v>218427</v>
       </c>
       <c r="C22" s="4">
-        <v>5529</v>
+        <v>5539</v>
       </c>
       <c r="D22" s="4">
-        <v>14082</v>
+        <v>14589</v>
       </c>
       <c r="E22" s="4">
-        <v>237635</v>
+        <v>238555</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8439</v>
+        <v>8442</v>
       </c>
       <c r="C23" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4">
-        <v>748</v>
+        <v>789</v>
       </c>
       <c r="E23" s="4">
-        <v>9297</v>
+        <v>9342</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>13083</v>
+        <v>13193</v>
       </c>
       <c r="C25" s="4">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="D25" s="4">
-        <v>1787</v>
+        <v>1805</v>
       </c>
       <c r="E25" s="4">
-        <v>16174</v>
+        <v>16306</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>15770</v>
+        <v>15785</v>
       </c>
       <c r="C26" s="4">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D26" s="4">
-        <v>15596</v>
+        <v>15657</v>
       </c>
       <c r="E26" s="4">
-        <v>32112</v>
+        <v>32191</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>12829</v>
+        <v>12890</v>
       </c>
       <c r="C27" s="4">
         <v>239</v>
       </c>
       <c r="D27" s="4">
-        <v>1996</v>
+        <v>2033</v>
       </c>
       <c r="E27" s="4">
-        <v>15064</v>
+        <v>15162</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>29971</v>
+        <v>30026</v>
       </c>
       <c r="C28" s="4">
         <v>1051</v>
       </c>
       <c r="D28" s="4">
-        <v>2992</v>
+        <v>3033</v>
       </c>
       <c r="E28" s="4">
-        <v>34014</v>
+        <v>34110</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>29661</v>
+        <v>29702</v>
       </c>
       <c r="C29" s="4">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="D29" s="4">
-        <v>4771</v>
+        <v>4789</v>
       </c>
       <c r="E29" s="4">
-        <v>35953</v>
+        <v>36015</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>12464</v>
+        <v>12486</v>
       </c>
       <c r="C30" s="4">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="D30" s="4">
-        <v>4002</v>
+        <v>4017</v>
       </c>
       <c r="E30" s="4">
-        <v>16815</v>
+        <v>16868</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4838</v>
+        <v>4841</v>
       </c>
       <c r="C31" s="4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D31" s="4">
-        <v>4450</v>
+        <v>4516</v>
       </c>
       <c r="E31" s="4">
-        <v>9505</v>
+        <v>9575</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>228196</v>
+        <v>228969</v>
       </c>
       <c r="C32" s="4">
-        <v>7458</v>
+        <v>7480</v>
       </c>
       <c r="D32" s="4">
-        <v>40004</v>
+        <v>40485</v>
       </c>
       <c r="E32" s="4">
-        <v>275658</v>
+        <v>276934</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5446</v>
+        <v>5454</v>
       </c>
       <c r="C33" s="4">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D33" s="4">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="E33" s="4">
-        <v>7380</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="C34" s="4">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D34" s="4">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E34" s="4">
-        <v>2630</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>11192</v>
+        <v>11204</v>
       </c>
       <c r="C35" s="4">
         <v>3113</v>
       </c>
       <c r="D35" s="4">
-        <v>3153</v>
+        <v>3170</v>
       </c>
       <c r="E35" s="4">
-        <v>17458</v>
+        <v>17487</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3739</v>
+        <v>3744</v>
       </c>
       <c r="C36" s="4">
         <v>228</v>
       </c>
       <c r="D36" s="4">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="E36" s="4">
-        <v>5596</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>7287</v>
+        <v>7314</v>
       </c>
       <c r="C37" s="4">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D37" s="4">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="E37" s="4">
-        <v>8998</v>
+        <v>9032</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>21077</v>
+        <v>21104</v>
       </c>
       <c r="C38" s="4">
         <v>742</v>
       </c>
       <c r="D38" s="4">
-        <v>6627</v>
+        <v>6671</v>
       </c>
       <c r="E38" s="4">
-        <v>28446</v>
+        <v>28517</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="C39" s="4">
         <v>359</v>
       </c>
       <c r="D39" s="4">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="E39" s="4">
-        <v>7137</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3870</v>
+        <v>3881</v>
       </c>
       <c r="C40" s="4">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D40" s="4">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="E40" s="4">
-        <v>5540</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1740,10 +1740,10 @@
         <v>15</v>
       </c>
       <c r="D41" s="4">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E41" s="4">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,7 +1751,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C42" s="4">
         <v>24</v>
@@ -1760,7 +1760,7 @@
         <v>1700</v>
       </c>
       <c r="E42" s="4">
-        <v>3529</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="C43" s="4">
         <v>85</v>
       </c>
       <c r="D43" s="4">
-        <v>2549</v>
+        <v>2561</v>
       </c>
       <c r="E43" s="4">
-        <v>5565</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>808075</v>
+        <v>810744</v>
       </c>
       <c r="C44" s="4">
-        <v>76694</v>
+        <v>76870</v>
       </c>
       <c r="D44" s="4">
-        <v>78690</v>
+        <v>79338</v>
       </c>
       <c r="E44" s="4">
-        <v>963459</v>
+        <v>966952</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C45" s="4">
         <v>94</v>
       </c>
       <c r="D45" s="4">
-        <v>1224</v>
+        <v>1260</v>
       </c>
       <c r="E45" s="4">
-        <v>2308</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10933</v>
+        <v>10962</v>
       </c>
       <c r="C46" s="4">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="D46" s="4">
-        <v>3329</v>
+        <v>3347</v>
       </c>
       <c r="E46" s="4">
-        <v>14526</v>
+        <v>14616</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>87041</v>
+        <v>87369</v>
       </c>
       <c r="C47" s="4">
-        <v>6736</v>
+        <v>6779</v>
       </c>
       <c r="D47" s="4">
-        <v>16186</v>
+        <v>16296</v>
       </c>
       <c r="E47" s="4">
-        <v>109963</v>
+        <v>110444</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6153</v>
+        <v>6162</v>
       </c>
       <c r="C48" s="4">
         <v>296</v>
       </c>
       <c r="D48" s="4">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="E48" s="4">
-        <v>8498</v>
+        <v>8511</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="C49" s="4">
         <v>15</v>
       </c>
       <c r="D49" s="4">
-        <v>1373</v>
+        <v>1394</v>
       </c>
       <c r="E49" s="4">
-        <v>2741</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>21861</v>
+        <v>21950</v>
       </c>
       <c r="C50" s="4">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="D50" s="4">
-        <v>4298</v>
+        <v>4345</v>
       </c>
       <c r="E50" s="4">
-        <v>27436</v>
+        <v>27577</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>78118</v>
+        <v>78740</v>
       </c>
       <c r="C51" s="4">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="D51" s="4">
-        <v>2921</v>
+        <v>2969</v>
       </c>
       <c r="E51" s="4">
-        <v>83156</v>
+        <v>83829</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C52" s="4">
         <v>43</v>
       </c>
       <c r="D52" s="4">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E52" s="4">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="C53" s="4">
         <v>66</v>
       </c>
       <c r="D53" s="4">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E53" s="4">
-        <v>5398</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,7 +1955,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C54" s="4">
         <v>13</v>
@@ -1964,7 +1964,7 @@
         <v>1821</v>
       </c>
       <c r="E54" s="4">
-        <v>2764</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="C55" s="4">
         <v>23</v>
       </c>
       <c r="D55" s="4">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="E55" s="4">
-        <v>3795</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
       </c>
       <c r="D56" s="4">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E56" s="4">
-        <v>2231</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,7 +2006,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C57" s="4">
         <v>306</v>
@@ -2015,7 +2015,7 @@
         <v>1537</v>
       </c>
       <c r="E57" s="4">
-        <v>2885</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2061345</v>
+        <v>2066922</v>
       </c>
       <c r="C58" s="4">
-        <v>126204</v>
+        <v>126510</v>
       </c>
       <c r="D58" s="4">
-        <v>166949</v>
+        <v>168336</v>
       </c>
       <c r="E58" s="4">
-        <v>2354498</v>
+        <v>2361768</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>7300</v>
+        <v>7303</v>
       </c>
       <c r="C59" s="4">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D59" s="4">
-        <v>1984</v>
+        <v>1990</v>
       </c>
       <c r="E59" s="4">
-        <v>9724</v>
+        <v>9734</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>8276</v>
+        <v>8296</v>
       </c>
       <c r="C60" s="4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D60" s="4">
-        <v>2161</v>
+        <v>2170</v>
       </c>
       <c r="E60" s="4">
-        <v>10654</v>
+        <v>10684</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4424</v>
+        <v>4435</v>
       </c>
       <c r="C61" s="4">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D61" s="4">
-        <v>1939</v>
+        <v>1947</v>
       </c>
       <c r="E61" s="4">
-        <v>7181</v>
+        <v>7201</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="C62" s="4">
         <v>215</v>
       </c>
       <c r="D62" s="4">
-        <v>944</v>
+        <v>958</v>
       </c>
       <c r="E62" s="4">
-        <v>2791</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>503984</v>
+        <v>505644</v>
       </c>
       <c r="C63" s="4">
-        <v>56439</v>
+        <v>56609</v>
       </c>
       <c r="D63" s="4">
-        <v>70345</v>
+        <v>71462</v>
       </c>
       <c r="E63" s="4">
-        <v>630768</v>
+        <v>633715</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C64" s="4">
         <v>7</v>
       </c>
       <c r="D64" s="4">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E64" s="4">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>9494</v>
+        <v>9498</v>
       </c>
       <c r="C65" s="4">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D65" s="4">
-        <v>1030</v>
+        <v>1120</v>
       </c>
       <c r="E65" s="4">
-        <v>10612</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C66" s="4">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="D66" s="4">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E66" s="4">
-        <v>2098</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>15890</v>
+        <v>15940</v>
       </c>
       <c r="C67" s="4">
-        <v>2245</v>
+        <v>2255</v>
       </c>
       <c r="D67" s="4">
-        <v>1703</v>
+        <v>1749</v>
       </c>
       <c r="E67" s="4">
-        <v>19838</v>
+        <v>19944</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4420</v>
+        <v>4427</v>
       </c>
       <c r="C68" s="4">
         <v>340</v>
       </c>
       <c r="D68" s="4">
-        <v>3154</v>
+        <v>3163</v>
       </c>
       <c r="E68" s="4">
-        <v>7914</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>54955</v>
+        <v>55012</v>
       </c>
       <c r="C69" s="4">
-        <v>4414</v>
+        <v>4429</v>
       </c>
       <c r="D69" s="4">
-        <v>15344</v>
+        <v>15415</v>
       </c>
       <c r="E69" s="4">
-        <v>74713</v>
+        <v>74856</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>782403</v>
+        <v>787885</v>
       </c>
       <c r="C71" s="4">
-        <v>16079</v>
+        <v>16140</v>
       </c>
       <c r="D71" s="4">
-        <v>184996</v>
+        <v>186486</v>
       </c>
       <c r="E71" s="4">
-        <v>983478</v>
+        <v>990511</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>148520</v>
+        <v>149074</v>
       </c>
       <c r="C72" s="4">
-        <v>6788</v>
+        <v>6804</v>
       </c>
       <c r="D72" s="4">
-        <v>12071</v>
+        <v>12167</v>
       </c>
       <c r="E72" s="4">
-        <v>167379</v>
+        <v>168045</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>16392</v>
+        <v>16413</v>
       </c>
       <c r="C73" s="4">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="D73" s="4">
-        <v>5756</v>
+        <v>5776</v>
       </c>
       <c r="E73" s="4">
-        <v>23238</v>
+        <v>23281</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11590</v>
+        <v>11599</v>
       </c>
       <c r="C74" s="4">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D74" s="4">
-        <v>2573</v>
+        <v>2605</v>
       </c>
       <c r="E74" s="4">
-        <v>14566</v>
+        <v>14609</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>23339</v>
+        <v>23501</v>
       </c>
       <c r="C75" s="4">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D75" s="4">
-        <v>4117</v>
+        <v>4129</v>
       </c>
       <c r="E75" s="4">
-        <v>28214</v>
+        <v>28389</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>12796</v>
+        <v>12838</v>
       </c>
       <c r="C76" s="4">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D76" s="4">
-        <v>1876</v>
+        <v>1912</v>
       </c>
       <c r="E76" s="4">
-        <v>15055</v>
+        <v>15135</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,7 +2346,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="C77" s="4">
         <v>29</v>
@@ -2355,7 +2355,7 @@
         <v>243</v>
       </c>
       <c r="E77" s="4">
-        <v>1563</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="C78" s="4">
         <v>111</v>
       </c>
       <c r="D78" s="4">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E78" s="4">
-        <v>2564</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C79" s="4">
         <v>78</v>
@@ -2389,7 +2389,7 @@
         <v>684</v>
       </c>
       <c r="E79" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>574651</v>
+        <v>576372</v>
       </c>
       <c r="C80" s="4">
-        <v>21434</v>
+        <v>21535</v>
       </c>
       <c r="D80" s="4">
-        <v>30739</v>
+        <v>31219</v>
       </c>
       <c r="E80" s="4">
-        <v>626824</v>
+        <v>629126</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>4067</v>
+        <v>4070</v>
       </c>
       <c r="C81" s="4">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D81" s="4">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="E81" s="4">
-        <v>5189</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>12989</v>
+        <v>12997</v>
       </c>
       <c r="C82" s="4">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D82" s="4">
-        <v>3914</v>
+        <v>4014</v>
       </c>
       <c r="E82" s="4">
-        <v>17557</v>
+        <v>17668</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>15431</v>
+        <v>15448</v>
       </c>
       <c r="C83" s="4">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D83" s="4">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="E83" s="4">
-        <v>16550</v>
+        <v>16576</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="C84" s="4">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D84" s="4">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="E84" s="4">
-        <v>4078</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>307075</v>
+        <v>308001</v>
       </c>
       <c r="C85" s="4">
-        <v>9304</v>
+        <v>9322</v>
       </c>
       <c r="D85" s="4">
-        <v>22379</v>
+        <v>22607</v>
       </c>
       <c r="E85" s="4">
-        <v>338758</v>
+        <v>339930</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="C86" s="4">
         <v>49</v>
       </c>
       <c r="D86" s="4">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="E86" s="4">
-        <v>3015</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14636</v>
+        <v>14652</v>
       </c>
       <c r="C87" s="4">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D87" s="4">
-        <v>3024</v>
+        <v>3048</v>
       </c>
       <c r="E87" s="4">
-        <v>18020</v>
+        <v>18062</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="C89" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D89" s="4">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="E89" s="4">
-        <v>4190</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11793</v>
+        <v>11811</v>
       </c>
       <c r="C90" s="4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D90" s="4">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="E90" s="4">
-        <v>15372</v>
+        <v>15393</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>7091</v>
+        <v>7097</v>
       </c>
       <c r="C91" s="4">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D91" s="4">
-        <v>1770</v>
+        <v>1781</v>
       </c>
       <c r="E91" s="4">
-        <v>9751</v>
+        <v>9770</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>94318</v>
+        <v>94733</v>
       </c>
       <c r="C92" s="4">
-        <v>3671</v>
+        <v>3680</v>
       </c>
       <c r="D92" s="4">
-        <v>11341</v>
+        <v>11444</v>
       </c>
       <c r="E92" s="4">
-        <v>109330</v>
+        <v>109857</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>44117</v>
+        <v>44191</v>
       </c>
       <c r="C93" s="4">
-        <v>9903</v>
+        <v>9942</v>
       </c>
       <c r="D93" s="4">
-        <v>13299</v>
+        <v>13343</v>
       </c>
       <c r="E93" s="4">
-        <v>67319</v>
+        <v>67476</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>25968</v>
+        <v>26030</v>
       </c>
       <c r="C94" s="4">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D94" s="4">
-        <v>1957</v>
+        <v>1984</v>
       </c>
       <c r="E94" s="4">
-        <v>28408</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>69242</v>
+        <v>69645</v>
       </c>
       <c r="C95" s="4">
-        <v>3144</v>
+        <v>3170</v>
       </c>
       <c r="D95" s="4">
-        <v>13414</v>
+        <v>13505</v>
       </c>
       <c r="E95" s="4">
-        <v>85800</v>
+        <v>86320</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>12243</v>
+        <v>12254</v>
       </c>
       <c r="C96" s="4">
         <v>281</v>
       </c>
       <c r="D96" s="4">
-        <v>1919</v>
+        <v>1935</v>
       </c>
       <c r="E96" s="4">
-        <v>14443</v>
+        <v>14470</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,7 +2686,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="C97" s="4">
         <v>40</v>
@@ -2695,7 +2695,7 @@
         <v>1978</v>
       </c>
       <c r="E97" s="4">
-        <v>3140</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4636</v>
+        <v>4686</v>
       </c>
       <c r="C98" s="4">
         <v>304</v>
       </c>
       <c r="D98" s="4">
-        <v>1061</v>
+        <v>1089</v>
       </c>
       <c r="E98" s="4">
-        <v>6001</v>
+        <v>6079</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C99" s="4">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D99" s="4">
-        <v>1675</v>
+        <v>1685</v>
       </c>
       <c r="E99" s="4">
-        <v>3461</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,7 +2737,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="C100" s="4">
         <v>205</v>
@@ -2746,7 +2746,7 @@
         <v>868</v>
       </c>
       <c r="E100" s="4">
-        <v>2494</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>18359</v>
+        <v>18402</v>
       </c>
       <c r="C101" s="4">
-        <v>3143</v>
+        <v>3147</v>
       </c>
       <c r="D101" s="4">
-        <v>5360</v>
+        <v>5392</v>
       </c>
       <c r="E101" s="4">
-        <v>26862</v>
+        <v>26941</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3515802</v>
+        <v>3526347</v>
       </c>
       <c r="C102" s="4">
-        <v>128996</v>
+        <v>129425</v>
       </c>
       <c r="D102" s="4">
-        <v>258393</v>
+        <v>261295</v>
       </c>
       <c r="E102" s="4">
-        <v>3903191</v>
+        <v>3917067</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>53884</v>
+        <v>54045</v>
       </c>
       <c r="C103" s="4">
-        <v>7363</v>
+        <v>7398</v>
       </c>
       <c r="D103" s="4">
-        <v>7614</v>
+        <v>7637</v>
       </c>
       <c r="E103" s="4">
-        <v>68861</v>
+        <v>69080</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2811,10 +2811,10 @@
         <v>50</v>
       </c>
       <c r="D104" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E104" s="4">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C105" s="4">
         <v>34</v>
       </c>
       <c r="D105" s="4">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="E105" s="4">
-        <v>2508</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>207073</v>
+        <v>207375</v>
       </c>
       <c r="C106" s="4">
-        <v>10134</v>
+        <v>10153</v>
       </c>
       <c r="D106" s="4">
-        <v>12909</v>
+        <v>13063</v>
       </c>
       <c r="E106" s="4">
-        <v>230116</v>
+        <v>230591</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2862,10 +2862,10 @@
         <v>391</v>
       </c>
       <c r="D107" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E107" s="4">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>24271</v>
+        <v>24321</v>
       </c>
       <c r="C108" s="4">
-        <v>2089</v>
+        <v>2094</v>
       </c>
       <c r="D108" s="4">
-        <v>6711</v>
+        <v>6773</v>
       </c>
       <c r="E108" s="4">
-        <v>33071</v>
+        <v>33188</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>400938</v>
+        <v>402028</v>
       </c>
       <c r="C109" s="4">
-        <v>14459</v>
+        <v>14488</v>
       </c>
       <c r="D109" s="4">
-        <v>101779</v>
+        <v>102854</v>
       </c>
       <c r="E109" s="4">
-        <v>517176</v>
+        <v>519370</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>30420</v>
+        <v>30452</v>
       </c>
       <c r="C110" s="4">
         <v>964</v>
       </c>
       <c r="D110" s="4">
-        <v>5141</v>
+        <v>5192</v>
       </c>
       <c r="E110" s="4">
-        <v>36525</v>
+        <v>36608</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>7141</v>
+        <v>7150</v>
       </c>
       <c r="C111" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D111" s="4">
-        <v>2845</v>
+        <v>2855</v>
       </c>
       <c r="E111" s="4">
-        <v>10067</v>
+        <v>10087</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>31984</v>
+        <v>32064</v>
       </c>
       <c r="C112" s="4">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="D112" s="4">
-        <v>16761</v>
+        <v>16797</v>
       </c>
       <c r="E112" s="4">
-        <v>51045</v>
+        <v>51164</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>15617</v>
+        <v>15643</v>
       </c>
       <c r="C113" s="4">
         <v>1828</v>
       </c>
       <c r="D113" s="4">
-        <v>2725</v>
+        <v>2758</v>
       </c>
       <c r="E113" s="4">
-        <v>20170</v>
+        <v>20229</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>14090</v>
+        <v>14098</v>
       </c>
       <c r="C114" s="4">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D114" s="4">
-        <v>2570</v>
+        <v>2589</v>
       </c>
       <c r="E114" s="4">
-        <v>16993</v>
+        <v>17022</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>15064</v>
+        <v>15092</v>
       </c>
       <c r="C115" s="4">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D115" s="4">
-        <v>3706</v>
+        <v>3717</v>
       </c>
       <c r="E115" s="4">
-        <v>19222</v>
+        <v>19268</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2329</v>
+        <v>2334</v>
       </c>
       <c r="C116" s="4">
         <v>31</v>
       </c>
       <c r="D116" s="4">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E116" s="4">
-        <v>3296</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>69248</v>
+        <v>69397</v>
       </c>
       <c r="C117" s="4">
-        <v>3514</v>
+        <v>3535</v>
       </c>
       <c r="D117" s="4">
-        <v>8503</v>
+        <v>8563</v>
       </c>
       <c r="E117" s="4">
-        <v>81265</v>
+        <v>81495</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>8073</v>
+        <v>8076</v>
       </c>
       <c r="C118" s="4">
-        <v>1233</v>
+        <v>1251</v>
       </c>
       <c r="D118" s="4">
-        <v>3218</v>
+        <v>3226</v>
       </c>
       <c r="E118" s="4">
-        <v>12524</v>
+        <v>12553</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C119" s="4">
         <v>9</v>
       </c>
       <c r="D119" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E119" s="4">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="C120" s="4">
         <v>178</v>
       </c>
       <c r="D120" s="4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E120" s="4">
-        <v>2084</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6508</v>
+        <v>6519</v>
       </c>
       <c r="C121" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D121" s="4">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="E121" s="4">
-        <v>8114</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>12293</v>
+        <v>12322</v>
       </c>
       <c r="C122" s="4">
         <v>2521</v>
       </c>
       <c r="D122" s="4">
-        <v>3164</v>
+        <v>3191</v>
       </c>
       <c r="E122" s="4">
-        <v>17978</v>
+        <v>18034</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C123" s="4">
         <v>35</v>
       </c>
       <c r="D123" s="4">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E123" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>146252</v>
+        <v>146605</v>
       </c>
       <c r="C124" s="4">
-        <v>11856</v>
+        <v>11876</v>
       </c>
       <c r="D124" s="4">
-        <v>29076</v>
+        <v>29497</v>
       </c>
       <c r="E124" s="4">
-        <v>187184</v>
+        <v>187978</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>12598</v>
+        <v>12600</v>
       </c>
       <c r="C125" s="4">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D125" s="4">
-        <v>3201</v>
+        <v>3207</v>
       </c>
       <c r="E125" s="4">
-        <v>16293</v>
+        <v>16304</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>43626</v>
+        <v>43756</v>
       </c>
       <c r="C126" s="4">
-        <v>7224</v>
+        <v>7258</v>
       </c>
       <c r="D126" s="4">
-        <v>12448</v>
+        <v>12882</v>
       </c>
       <c r="E126" s="4">
-        <v>63298</v>
+        <v>63896</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>105612</v>
+        <v>105834</v>
       </c>
       <c r="C127" s="4">
-        <v>6291</v>
+        <v>6308</v>
       </c>
       <c r="D127" s="4">
-        <v>13220</v>
+        <v>13358</v>
       </c>
       <c r="E127" s="4">
-        <v>125123</v>
+        <v>125500</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5564</v>
+        <v>5568</v>
       </c>
       <c r="C128" s="4">
         <v>193</v>
       </c>
       <c r="D128" s="4">
-        <v>2491</v>
+        <v>2523</v>
       </c>
       <c r="E128" s="4">
-        <v>8248</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>12435</v>
+        <v>12441</v>
       </c>
       <c r="C129" s="4">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D129" s="4">
-        <v>4122</v>
+        <v>4165</v>
       </c>
       <c r="E129" s="4">
-        <v>16951</v>
+        <v>17001</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>92655</v>
+        <v>92968</v>
       </c>
       <c r="C130" s="4">
-        <v>4909</v>
+        <v>4923</v>
       </c>
       <c r="D130" s="4">
-        <v>13916</v>
+        <v>14235</v>
       </c>
       <c r="E130" s="4">
-        <v>111480</v>
+        <v>112126</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>20534</v>
+        <v>20618</v>
       </c>
       <c r="C131" s="4">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="D131" s="4">
-        <v>7080</v>
+        <v>7200</v>
       </c>
       <c r="E131" s="4">
-        <v>28856</v>
+        <v>29066</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,16 +3281,16 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C132" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D132" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E132" s="4">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>28359</v>
+        <v>28409</v>
       </c>
       <c r="C134" s="4">
-        <v>599</v>
+        <v>665</v>
       </c>
       <c r="D134" s="4">
-        <v>17110</v>
+        <v>17188</v>
       </c>
       <c r="E134" s="4">
-        <v>46068</v>
+        <v>46262</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="C135" s="4">
         <v>38</v>
       </c>
       <c r="D135" s="4">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E135" s="4">
-        <v>1857</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C137" s="4">
         <v>42</v>
       </c>
       <c r="D137" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E137" s="4">
-        <v>2067</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>24337</v>
+        <v>24381</v>
       </c>
       <c r="C138" s="4">
-        <v>4086</v>
+        <v>4097</v>
       </c>
       <c r="D138" s="4">
-        <v>5582</v>
+        <v>5690</v>
       </c>
       <c r="E138" s="4">
-        <v>34005</v>
+        <v>34168</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3406,10 +3406,10 @@
         <v>41</v>
       </c>
       <c r="D139" s="4">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="E139" s="4">
-        <v>3019</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6648</v>
+        <v>6684</v>
       </c>
       <c r="C140" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D140" s="4">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E140" s="4">
-        <v>7194</v>
+        <v>7234</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>20415</v>
+        <v>20454</v>
       </c>
       <c r="C141" s="4">
-        <v>2125</v>
+        <v>2132</v>
       </c>
       <c r="D141" s="4">
-        <v>3103</v>
+        <v>3128</v>
       </c>
       <c r="E141" s="4">
-        <v>25643</v>
+        <v>25714</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5181</v>
+        <v>5185</v>
       </c>
       <c r="C142" s="4">
         <v>87</v>
       </c>
       <c r="D142" s="4">
-        <v>3975</v>
+        <v>3980</v>
       </c>
       <c r="E142" s="4">
-        <v>9243</v>
+        <v>9252</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>14990</v>
+        <v>15035</v>
       </c>
       <c r="C143" s="4">
         <v>604</v>
       </c>
       <c r="D143" s="4">
-        <v>2981</v>
+        <v>2985</v>
       </c>
       <c r="E143" s="4">
-        <v>18575</v>
+        <v>18624</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>10623</v>
+        <v>10642</v>
       </c>
       <c r="C144" s="4">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D144" s="4">
-        <v>2454</v>
+        <v>2466</v>
       </c>
       <c r="E144" s="4">
-        <v>13508</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>7311</v>
+        <v>7329</v>
       </c>
       <c r="C145" s="4">
         <v>212</v>
       </c>
       <c r="D145" s="4">
-        <v>2471</v>
+        <v>2508</v>
       </c>
       <c r="E145" s="4">
-        <v>9994</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8618</v>
+        <v>8646</v>
       </c>
       <c r="C146" s="4">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D146" s="4">
-        <v>1465</v>
+        <v>1489</v>
       </c>
       <c r="E146" s="4">
-        <v>10559</v>
+        <v>10614</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>46912</v>
+        <v>47097</v>
       </c>
       <c r="C147" s="4">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="D147" s="4">
-        <v>4915</v>
+        <v>4956</v>
       </c>
       <c r="E147" s="4">
-        <v>54758</v>
+        <v>54986</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>27484</v>
+        <v>27558</v>
       </c>
       <c r="C148" s="4">
         <v>572</v>
       </c>
       <c r="D148" s="4">
-        <v>4748</v>
+        <v>5086</v>
       </c>
       <c r="E148" s="4">
-        <v>32804</v>
+        <v>33216</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,7 +3570,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C149" s="4">
         <v>167</v>
@@ -3579,7 +3579,7 @@
         <v>82</v>
       </c>
       <c r="E149" s="4">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4780</v>
+        <v>4794</v>
       </c>
       <c r="C150" s="4">
         <v>824</v>
       </c>
       <c r="D150" s="4">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="E150" s="4">
-        <v>6297</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>9128</v>
+        <v>9140</v>
       </c>
       <c r="C151" s="4">
         <v>316</v>
       </c>
       <c r="D151" s="4">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="E151" s="4">
-        <v>10764</v>
+        <v>10779</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>182401</v>
+        <v>182622</v>
       </c>
       <c r="C153" s="4">
-        <v>6331</v>
+        <v>6344</v>
       </c>
       <c r="D153" s="4">
-        <v>83567</v>
+        <v>84108</v>
       </c>
       <c r="E153" s="4">
-        <v>272299</v>
+        <v>273074</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2739</v>
+        <v>2741</v>
       </c>
       <c r="C154" s="4">
         <v>93</v>
       </c>
       <c r="D154" s="4">
-        <v>1613</v>
+        <v>1621</v>
       </c>
       <c r="E154" s="4">
-        <v>4445</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>11284</v>
+        <v>11314</v>
       </c>
       <c r="C155" s="4">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D155" s="4">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="E155" s="4">
-        <v>13068</v>
+        <v>13106</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2192</v>
+        <v>2197</v>
       </c>
       <c r="C156" s="4">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D156" s="4">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="E156" s="4">
-        <v>4382</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C157" s="4">
         <v>127</v>
       </c>
       <c r="D157" s="4">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E157" s="4">
-        <v>1749</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="C158" s="4">
         <v>57</v>
       </c>
       <c r="D158" s="4">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E158" s="4">
-        <v>2228</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>28439</v>
+        <v>28498</v>
       </c>
       <c r="C159" s="4">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D159" s="4">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="E159" s="4">
-        <v>31055</v>
+        <v>31120</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>52413</v>
+        <v>52445</v>
       </c>
       <c r="C160" s="4">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D160" s="4">
-        <v>5467</v>
+        <v>5476</v>
       </c>
       <c r="E160" s="4">
-        <v>58210</v>
+        <v>58258</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="C161" s="4">
         <v>40</v>
       </c>
       <c r="D161" s="4">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="E161" s="4">
-        <v>3359</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>207103</v>
+        <v>207466</v>
       </c>
       <c r="C162" s="4">
-        <v>9484</v>
+        <v>9491</v>
       </c>
       <c r="D162" s="4">
-        <v>43646</v>
+        <v>43860</v>
       </c>
       <c r="E162" s="4">
-        <v>260233</v>
+        <v>260817</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C163" s="4">
         <v>42</v>
@@ -3817,7 +3817,7 @@
         <v>50</v>
       </c>
       <c r="E163" s="4">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>25481</v>
+        <v>25527</v>
       </c>
       <c r="C164" s="4">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="D164" s="4">
-        <v>4252</v>
+        <v>4277</v>
       </c>
       <c r="E164" s="4">
-        <v>30783</v>
+        <v>30857</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C165" s="4">
         <v>21</v>
       </c>
       <c r="D165" s="4">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E165" s="4">
-        <v>2271</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>41603</v>
+        <v>41653</v>
       </c>
       <c r="C166" s="4">
-        <v>5428</v>
+        <v>5440</v>
       </c>
       <c r="D166" s="4">
-        <v>33183</v>
+        <v>33283</v>
       </c>
       <c r="E166" s="4">
-        <v>80214</v>
+        <v>80376</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>14677</v>
+        <v>14714</v>
       </c>
       <c r="C167" s="4">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D167" s="4">
-        <v>5250</v>
+        <v>5276</v>
       </c>
       <c r="E167" s="4">
-        <v>20770</v>
+        <v>20834</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3909</v>
+        <v>3922</v>
       </c>
       <c r="C168" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D168" s="4">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="E168" s="4">
-        <v>5149</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>4374</v>
+        <v>4379</v>
       </c>
       <c r="C169" s="4">
         <v>50</v>
       </c>
       <c r="D169" s="4">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="E169" s="4">
-        <v>6636</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>9638</v>
+        <v>9663</v>
       </c>
       <c r="C170" s="4">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D170" s="4">
-        <v>2353</v>
+        <v>2369</v>
       </c>
       <c r="E170" s="4">
-        <v>12814</v>
+        <v>12856</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>318130</v>
+        <v>319032</v>
       </c>
       <c r="C171" s="4">
-        <v>15795</v>
+        <v>15842</v>
       </c>
       <c r="D171" s="4">
-        <v>34082</v>
+        <v>34487</v>
       </c>
       <c r="E171" s="4">
-        <v>368007</v>
+        <v>369361</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>7091</v>
+        <v>7095</v>
       </c>
       <c r="C172" s="4">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D172" s="4">
-        <v>1474</v>
+        <v>1525</v>
       </c>
       <c r="E172" s="4">
-        <v>9346</v>
+        <v>9402</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>5154</v>
+        <v>5159</v>
       </c>
       <c r="C173" s="4">
         <v>663</v>
       </c>
       <c r="D173" s="4">
-        <v>3485</v>
+        <v>3502</v>
       </c>
       <c r="E173" s="4">
-        <v>9302</v>
+        <v>9324</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C174" s="4">
         <v>11</v>
       </c>
       <c r="D174" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E174" s="4">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>37415</v>
+        <v>37484</v>
       </c>
       <c r="C175" s="4">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="D175" s="4">
-        <v>5196</v>
+        <v>5299</v>
       </c>
       <c r="E175" s="4">
-        <v>43727</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>23466</v>
+        <v>23540</v>
       </c>
       <c r="C176" s="4">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D176" s="4">
-        <v>7236</v>
+        <v>7327</v>
       </c>
       <c r="E176" s="4">
-        <v>32221</v>
+        <v>32387</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="C177" s="4">
         <v>754</v>
       </c>
       <c r="D177" s="4">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="E177" s="4">
-        <v>5679</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>7880</v>
+        <v>7884</v>
       </c>
       <c r="C178" s="4">
         <v>138</v>
       </c>
       <c r="D178" s="4">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="E178" s="4">
-        <v>10677</v>
+        <v>10691</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>195454</v>
+        <v>195899</v>
       </c>
       <c r="C179" s="4">
-        <v>38764</v>
+        <v>38854</v>
       </c>
       <c r="D179" s="4">
-        <v>40605</v>
+        <v>41139</v>
       </c>
       <c r="E179" s="4">
-        <v>274823</v>
+        <v>275892</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4103,10 +4103,10 @@
         <v>258</v>
       </c>
       <c r="D180" s="4">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E180" s="4">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4120,10 +4120,10 @@
         <v>240</v>
       </c>
       <c r="D181" s="4">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E181" s="4">
-        <v>1243</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>25372</v>
+        <v>25454</v>
       </c>
       <c r="C182" s="4">
-        <v>5163</v>
+        <v>5175</v>
       </c>
       <c r="D182" s="4">
-        <v>8521</v>
+        <v>8628</v>
       </c>
       <c r="E182" s="4">
-        <v>39056</v>
+        <v>39257</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>12248</v>
+        <v>12298</v>
       </c>
       <c r="C183" s="4">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D183" s="4">
-        <v>4286</v>
+        <v>4300</v>
       </c>
       <c r="E183" s="4">
-        <v>17433</v>
+        <v>17499</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>8152</v>
+        <v>8171</v>
       </c>
       <c r="C184" s="4">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="D184" s="4">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="E184" s="4">
-        <v>11978</v>
+        <v>12001</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>61350</v>
+        <v>61569</v>
       </c>
       <c r="C185" s="4">
-        <v>5712</v>
+        <v>5726</v>
       </c>
       <c r="D185" s="4">
-        <v>15073</v>
+        <v>15231</v>
       </c>
       <c r="E185" s="4">
-        <v>82135</v>
+        <v>82526</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C186" s="4">
         <v>226</v>
       </c>
       <c r="D186" s="4">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E186" s="4">
-        <v>3085</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>9229</v>
+        <v>9231</v>
       </c>
       <c r="C187" s="4">
         <v>95</v>
       </c>
       <c r="D187" s="4">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E187" s="4">
-        <v>10215</v>
+        <v>10218</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>29082</v>
+        <v>29173</v>
       </c>
       <c r="C188" s="4">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="D188" s="4">
-        <v>4930</v>
+        <v>4953</v>
       </c>
       <c r="E188" s="4">
-        <v>35134</v>
+        <v>35251</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>66832</v>
+        <v>67016</v>
       </c>
       <c r="C189" s="4">
-        <v>6722</v>
+        <v>6741</v>
       </c>
       <c r="D189" s="4">
-        <v>10108</v>
+        <v>10199</v>
       </c>
       <c r="E189" s="4">
-        <v>83662</v>
+        <v>83956</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7242</v>
+        <v>7245</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
       </c>
       <c r="D190" s="4">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="E190" s="4">
-        <v>8449</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2561</v>
+        <v>2572</v>
       </c>
       <c r="C191" s="4">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D191" s="4">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E191" s="4">
-        <v>3519</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>42871</v>
+        <v>42941</v>
       </c>
       <c r="C192" s="4">
-        <v>13649</v>
+        <v>13687</v>
       </c>
       <c r="D192" s="4">
-        <v>9757</v>
+        <v>9818</v>
       </c>
       <c r="E192" s="4">
-        <v>66277</v>
+        <v>66446</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="C194" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D194" s="4">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E194" s="4">
-        <v>2262</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5448</v>
+        <v>5460</v>
       </c>
       <c r="C195" s="4">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D195" s="4">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="E195" s="4">
-        <v>7392</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>5969</v>
+        <v>5994</v>
       </c>
       <c r="C196" s="4">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D196" s="4">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="E196" s="4">
-        <v>6850</v>
+        <v>6889</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3698</v>
+        <v>3705</v>
       </c>
       <c r="C197" s="4">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D197" s="4">
-        <v>2749</v>
+        <v>2756</v>
       </c>
       <c r="E197" s="4">
-        <v>6810</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4406,13 +4406,13 @@
         <v>116</v>
       </c>
       <c r="C198" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D198" s="4">
         <v>34</v>
       </c>
       <c r="E198" s="4">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>10543</v>
+        <v>10575</v>
       </c>
       <c r="C199" s="4">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D199" s="4">
-        <v>5787</v>
+        <v>5890</v>
       </c>
       <c r="E199" s="4">
-        <v>16596</v>
+        <v>16733</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>66053</v>
+        <v>66193</v>
       </c>
       <c r="C200" s="4">
-        <v>4927</v>
+        <v>4939</v>
       </c>
       <c r="D200" s="4">
-        <v>4448</v>
+        <v>4491</v>
       </c>
       <c r="E200" s="4">
-        <v>75428</v>
+        <v>75623</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5430</v>
+        <v>5439</v>
       </c>
       <c r="C201" s="4">
         <v>143</v>
       </c>
       <c r="D201" s="4">
-        <v>2461</v>
+        <v>2469</v>
       </c>
       <c r="E201" s="4">
-        <v>8034</v>
+        <v>8051</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>16848</v>
+        <v>16860</v>
       </c>
       <c r="C202" s="4">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="D202" s="4">
-        <v>2091</v>
+        <v>2106</v>
       </c>
       <c r="E202" s="4">
-        <v>20861</v>
+        <v>20890</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>5512</v>
+        <v>5523</v>
       </c>
       <c r="C203" s="4">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D203" s="4">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="E203" s="4">
-        <v>7715</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>5159</v>
+        <v>5163</v>
       </c>
       <c r="C204" s="4">
         <v>69</v>
       </c>
       <c r="D204" s="4">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="E204" s="4">
-        <v>7520</v>
+        <v>7527</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>14795</v>
+        <v>14847</v>
       </c>
       <c r="C205" s="4">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="D205" s="4">
-        <v>2505</v>
+        <v>2518</v>
       </c>
       <c r="E205" s="4">
-        <v>18703</v>
+        <v>18771</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>26810</v>
+        <v>26886</v>
       </c>
       <c r="C206" s="4">
-        <v>7147</v>
+        <v>7170</v>
       </c>
       <c r="D206" s="4">
-        <v>13376</v>
+        <v>13466</v>
       </c>
       <c r="E206" s="4">
-        <v>47333</v>
+        <v>47522</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="C207" s="4">
         <v>78</v>
       </c>
       <c r="D207" s="4">
-        <v>1835</v>
+        <v>1861</v>
       </c>
       <c r="E207" s="4">
-        <v>4482</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E208" s="4">
-        <v>1218</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15793</v>
+        <v>15797</v>
       </c>
       <c r="C209" s="4">
         <v>169</v>
       </c>
       <c r="D209" s="4">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E209" s="4">
-        <v>16561</v>
+        <v>16568</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4613,10 +4613,10 @@
         <v>69</v>
       </c>
       <c r="D210" s="4">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E210" s="4">
-        <v>1174</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10706</v>
+        <v>10729</v>
       </c>
       <c r="C211" s="4">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D211" s="4">
-        <v>2735</v>
+        <v>2753</v>
       </c>
       <c r="E211" s="4">
-        <v>13856</v>
+        <v>13899</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,13 +4644,13 @@
         <v>144</v>
       </c>
       <c r="C212" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D212" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E212" s="4">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>161310</v>
+        <v>161606</v>
       </c>
       <c r="C213" s="4">
-        <v>8923</v>
+        <v>8939</v>
       </c>
       <c r="D213" s="4">
-        <v>18151</v>
+        <v>18257</v>
       </c>
       <c r="E213" s="4">
-        <v>188384</v>
+        <v>188802</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3810</v>
+        <v>3816</v>
       </c>
       <c r="C214" s="4">
         <v>369</v>
       </c>
       <c r="D214" s="4">
-        <v>3798</v>
+        <v>3804</v>
       </c>
       <c r="E214" s="4">
-        <v>7977</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>45350</v>
+        <v>45446</v>
       </c>
       <c r="C215" s="4">
         <v>551</v>
       </c>
       <c r="D215" s="4">
-        <v>8076</v>
+        <v>8241</v>
       </c>
       <c r="E215" s="4">
-        <v>53977</v>
+        <v>54238</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2573</v>
+        <v>2577</v>
       </c>
       <c r="C216" s="4">
         <v>130</v>
       </c>
       <c r="D216" s="4">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="E216" s="4">
-        <v>4300</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E218" s="4">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4766,10 +4766,10 @@
         <v>27</v>
       </c>
       <c r="D219" s="4">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E219" s="4">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3431</v>
+        <v>3436</v>
       </c>
       <c r="C220" s="4">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D220" s="4">
         <v>729</v>
       </c>
       <c r="E220" s="4">
-        <v>4428</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1440624</v>
+        <v>1444091</v>
       </c>
       <c r="C221" s="4">
-        <v>86192</v>
+        <v>86341</v>
       </c>
       <c r="D221" s="4">
-        <v>156201</v>
+        <v>158447</v>
       </c>
       <c r="E221" s="4">
-        <v>1683017</v>
+        <v>1688879</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>78902</v>
+        <v>78956</v>
       </c>
       <c r="C222" s="4">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="D222" s="4">
-        <v>38015</v>
+        <v>38690</v>
       </c>
       <c r="E222" s="4">
-        <v>120077</v>
+        <v>120808</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4828,7 +4828,7 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C223" s="4">
         <v>3</v>
@@ -4837,7 +4837,7 @@
         <v>56</v>
       </c>
       <c r="E223" s="4">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,7 +4845,7 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="C224" s="4">
         <v>104</v>
@@ -4854,7 +4854,7 @@
         <v>1027</v>
       </c>
       <c r="E224" s="4">
-        <v>4191</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,7 +4862,7 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C225" s="4">
         <v>25</v>
@@ -4871,7 +4871,7 @@
         <v>123</v>
       </c>
       <c r="E225" s="4">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>20775</v>
+        <v>20795</v>
       </c>
       <c r="C226" s="4">
         <v>1087</v>
       </c>
       <c r="D226" s="4">
-        <v>3234</v>
+        <v>3250</v>
       </c>
       <c r="E226" s="4">
-        <v>25096</v>
+        <v>25132</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>69109</v>
+        <v>69201</v>
       </c>
       <c r="C227" s="4">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="D227" s="4">
-        <v>36816</v>
+        <v>36872</v>
       </c>
       <c r="E227" s="4">
-        <v>107412</v>
+        <v>107564</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>875104</v>
+        <v>877041</v>
       </c>
       <c r="C228" s="4">
-        <v>38358</v>
+        <v>38399</v>
       </c>
       <c r="D228" s="4">
-        <v>111486</v>
+        <v>113013</v>
       </c>
       <c r="E228" s="4">
-        <v>1024948</v>
+        <v>1028453</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>9878</v>
+        <v>9893</v>
       </c>
       <c r="C229" s="4">
         <v>228</v>
       </c>
       <c r="D229" s="4">
-        <v>2420</v>
+        <v>2432</v>
       </c>
       <c r="E229" s="4">
-        <v>12526</v>
+        <v>12553</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>8141</v>
+        <v>8160</v>
       </c>
       <c r="C230" s="4">
         <v>850</v>
       </c>
       <c r="D230" s="4">
-        <v>3874</v>
+        <v>3941</v>
       </c>
       <c r="E230" s="4">
-        <v>12865</v>
+        <v>12951</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>9835</v>
+        <v>9842</v>
       </c>
       <c r="C231" s="4">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="D231" s="4">
-        <v>3084</v>
+        <v>3093</v>
       </c>
       <c r="E231" s="4">
-        <v>14861</v>
+        <v>14881</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C232" s="4">
         <v>69</v>
       </c>
       <c r="D232" s="4">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="E232" s="4">
-        <v>2736</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>22506</v>
+        <v>22529</v>
       </c>
       <c r="C233" s="4">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D233" s="4">
-        <v>1221</v>
+        <v>1242</v>
       </c>
       <c r="E233" s="4">
-        <v>24084</v>
+        <v>24131</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>39144</v>
+        <v>39243</v>
       </c>
       <c r="C234" s="4">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="D234" s="4">
-        <v>7960</v>
+        <v>8010</v>
       </c>
       <c r="E234" s="4">
-        <v>48238</v>
+        <v>48397</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>16780</v>
+        <v>16830</v>
       </c>
       <c r="C235" s="4">
-        <v>1712</v>
+        <v>1717</v>
       </c>
       <c r="D235" s="4">
-        <v>5534</v>
+        <v>5599</v>
       </c>
       <c r="E235" s="4">
-        <v>24026</v>
+        <v>24146</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>35770</v>
+        <v>35839</v>
       </c>
       <c r="C236" s="4">
-        <v>1526</v>
+        <v>1540</v>
       </c>
       <c r="D236" s="4">
-        <v>12486</v>
+        <v>12510</v>
       </c>
       <c r="E236" s="4">
-        <v>49782</v>
+        <v>49889</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>90748</v>
+        <v>90844</v>
       </c>
       <c r="C237" s="4">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D237" s="4">
-        <v>8252</v>
+        <v>8275</v>
       </c>
       <c r="E237" s="4">
-        <v>100132</v>
+        <v>100252</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>28561</v>
+        <v>28641</v>
       </c>
       <c r="C238" s="4">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="D238" s="4">
-        <v>2406</v>
+        <v>2473</v>
       </c>
       <c r="E238" s="4">
-        <v>31724</v>
+        <v>31877</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4199</v>
+        <v>4201</v>
       </c>
       <c r="C239" s="4">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D239" s="4">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E239" s="4">
-        <v>4675</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>33157</v>
+        <v>33202</v>
       </c>
       <c r="C240" s="4">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D240" s="4">
-        <v>5050</v>
+        <v>5257</v>
       </c>
       <c r="E240" s="4">
-        <v>38748</v>
+        <v>39001</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>324034</v>
+        <v>324390</v>
       </c>
       <c r="C241" s="4">
-        <v>4306</v>
+        <v>4322</v>
       </c>
       <c r="D241" s="4">
-        <v>41096</v>
+        <v>41409</v>
       </c>
       <c r="E241" s="4">
-        <v>369436</v>
+        <v>370121</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>28450</v>
+        <v>28524</v>
       </c>
       <c r="C242" s="4">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="D242" s="4">
-        <v>2397</v>
+        <v>2431</v>
       </c>
       <c r="E242" s="4">
-        <v>31606</v>
+        <v>31735</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5174,10 +5174,10 @@
         <v>325</v>
       </c>
       <c r="D243" s="4">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="E243" s="4">
-        <v>3710</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>98548</v>
+        <v>98685</v>
       </c>
       <c r="C244" s="4">
-        <v>5690</v>
+        <v>5760</v>
       </c>
       <c r="D244" s="4">
-        <v>19007</v>
+        <v>19052</v>
       </c>
       <c r="E244" s="4">
-        <v>123245</v>
+        <v>123497</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>10995</v>
+        <v>11038</v>
       </c>
       <c r="C245" s="4">
         <v>542</v>
       </c>
       <c r="D245" s="4">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="E245" s="4">
-        <v>15212</v>
+        <v>15256</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>21347</v>
+        <v>21415</v>
       </c>
       <c r="C246" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D246" s="4">
-        <v>1382</v>
+        <v>1400</v>
       </c>
       <c r="E246" s="4">
-        <v>22894</v>
+        <v>22981</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>371220</v>
+        <v>372035</v>
       </c>
       <c r="C247" s="4">
-        <v>13825</v>
+        <v>13859</v>
       </c>
       <c r="D247" s="4">
-        <v>48342</v>
+        <v>49009</v>
       </c>
       <c r="E247" s="4">
-        <v>433387</v>
+        <v>434903</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>28741</v>
+        <v>28806</v>
       </c>
       <c r="C248" s="4">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="D248" s="4">
-        <v>6179</v>
+        <v>6189</v>
       </c>
       <c r="E248" s="4">
-        <v>35822</v>
+        <v>35903</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5276,10 +5276,10 @@
         <v>40</v>
       </c>
       <c r="D249" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E249" s="4">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>41836</v>
+        <v>41913</v>
       </c>
       <c r="C250" s="4">
-        <v>3006</v>
+        <v>3014</v>
       </c>
       <c r="D250" s="4">
-        <v>4820</v>
+        <v>4868</v>
       </c>
       <c r="E250" s="4">
-        <v>49662</v>
+        <v>49795</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>14977</v>
+        <v>15009</v>
       </c>
       <c r="C251" s="4">
         <v>1739</v>
       </c>
       <c r="D251" s="4">
-        <v>3232</v>
+        <v>3254</v>
       </c>
       <c r="E251" s="4">
-        <v>19948</v>
+        <v>20002</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5327,10 +5327,10 @@
         <v>89</v>
       </c>
       <c r="D252" s="4">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E252" s="4">
-        <v>2698</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6376</v>
+        <v>6388</v>
       </c>
       <c r="C253" s="4">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D253" s="4">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="E253" s="4">
-        <v>8507</v>
+        <v>8521</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>15220</v>
+        <v>15227</v>
       </c>
       <c r="C254" s="4">
         <v>120</v>
       </c>
       <c r="D254" s="4">
-        <v>3696</v>
+        <v>3716</v>
       </c>
       <c r="E254" s="4">
-        <v>19036</v>
+        <v>19063</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>8925</v>
+        <v>8930</v>
       </c>
       <c r="C255" s="4">
         <v>229</v>
       </c>
       <c r="D255" s="4">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="E255" s="4">
-        <v>9718</v>
+        <v>9733</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>132459</v>
+        <v>132611</v>
       </c>
       <c r="C256" s="4">
-        <v>8744</v>
+        <v>8905</v>
       </c>
       <c r="D256" s="4">
-        <v>4611</v>
+        <v>4698</v>
       </c>
       <c r="E256" s="4">
-        <v>145814</v>
+        <v>146214</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>19907384</v>
+        <v>19966634</v>
       </c>
       <c r="C257" s="4">
-        <v>1033285</v>
+        <v>1036541</v>
       </c>
       <c r="D257" s="4">
-        <v>2664340</v>
+        <v>2691182</v>
       </c>
       <c r="E257" s="4">
-        <v>23605009</v>
+        <v>23694357</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
